--- a/EC/Train Runs 2016-05-08 (FRA Format).xlsx
+++ b/EC/Train Runs 2016-05-08 (FRA Format).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="13860" tabRatio="845" firstSheet="2" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="13860" tabRatio="845" firstSheet="3" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Weekly Summary" sheetId="15" r:id="rId1"/>
@@ -4343,18 +4343,18 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="120">
+  <dxfs count="113">
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
+          <bgColor theme="5" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5135,55 +5135,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -9125,7 +9076,7 @@
   <dimension ref="A1:BM176"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5:N9"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9257,7 +9208,7 @@
       </c>
       <c r="G3" s="11"/>
       <c r="J3" s="26">
-        <v>42491</v>
+        <v>42498</v>
       </c>
       <c r="K3" s="27"/>
       <c r="L3" s="76" t="s">
@@ -12706,7 +12657,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:G147">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>NOT(ISBLANK($G3))</formula>
     </cfRule>
   </conditionalFormatting>
